--- a/IO_DemoRun/RunControl_DemoRun.xlsx
+++ b/IO_DemoRun/RunControl_DemoRun.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -752,7 +752,13 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -761,16 +767,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1276,11 +1276,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="AB6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="U1" sqref="U1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="AG6" sqref="AG6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1449,68 +1449,68 @@
       </c>
     </row>
     <row r="4" spans="1:43" s="8" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="29" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="30" t="s">
+      <c r="E4" s="25"/>
+      <c r="F4" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="25" t="s">
+      <c r="G4" s="26"/>
+      <c r="H4" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="26" t="s">
+      <c r="I4" s="27"/>
+      <c r="J4" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="K4" s="26"/>
-      <c r="L4" s="25" t="s">
+      <c r="K4" s="28"/>
+      <c r="L4" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="26" t="s">
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="24" t="s">
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
       <c r="Y4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="Z4" s="27" t="s">
+      <c r="Z4" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="AA4" s="27"/>
-      <c r="AB4" s="27"/>
-      <c r="AC4" s="28" t="s">
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="AD4" s="28"/>
-      <c r="AE4" s="28"/>
-      <c r="AF4" s="28"/>
+      <c r="AD4" s="30"/>
+      <c r="AE4" s="30"/>
+      <c r="AF4" s="30"/>
       <c r="AG4" s="16"/>
       <c r="AH4" s="23"/>
       <c r="AI4" s="21"/>
-      <c r="AJ4" s="24" t="s">
+      <c r="AJ4" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="AK4" s="24"/>
-      <c r="AL4" s="24"/>
+      <c r="AK4" s="29"/>
+      <c r="AL4" s="29"/>
       <c r="AM4" s="22" t="s">
         <v>70</v>
       </c>
@@ -1914,17 +1914,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
     <mergeCell ref="AJ4:AL4"/>
     <mergeCell ref="L4:R4"/>
     <mergeCell ref="S4:U4"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="AC4:AF4"/>
     <mergeCell ref="V4:X4"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <dataValidations count="20">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6 AP7">
@@ -2266,8 +2266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
